--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909470A6-48EE-48C3-80D2-72D7DBD90286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129DC6B-01D6-4F62-91EB-42D7E583019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Journal de travail'!$A$6:$G$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>mise en place du docker</t>
+  </si>
+  <si>
+    <t>Lancement du docker compose + verrification du bon fonctionnement du docker problème: serveur non fonctionnel quand les fichiers sont renommer 30 min d'essaie, problème régler</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1033,7 @@
                   <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1960,7 +1964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2017,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 40 minutes</v>
+        <v>0 jours 1 heurs 20 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2032,11 +2036,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2141,11 +2145,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
+        <v>45373</v>
+      </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="43">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8167,7 +8180,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8175,7 +8188,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8284,7 +8297,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8563,15 +8576,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8581,6 +8585,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8604,14 +8617,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8623,4 +8628,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129DC6B-01D6-4F62-91EB-42D7E583019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2655AE0-ECA5-4A06-AB60-A8998AE096CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -138,7 +138,10 @@
     <t>mise en place du docker</t>
   </si>
   <si>
-    <t>Lancement du docker compose + verrification du bon fonctionnement du docker problème: serveur non fonctionnel quand les fichiers sont renommer 30 min d'essaie, problème régler</t>
+    <t>Lancement du docker compose + verrification du bon fonctionnement du docker problème: serveur non fonctionnel quand les fichiers sont renommer 30 min d'essaie, problème réglé. Solution: modifier les chaines de caractère comprenons "server.js" dans le fichier "package.json" ainsi que le dockerfile par "app.mjs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des maquette: Création de la page de login + palette de couleur </t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1964,7 +1967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2020,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 20 minutes</v>
+        <v>0 jours 2 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2145,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="B10" s="39">
         <v>45373</v>
       </c>
@@ -2172,11 +2175,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="40">
+        <v>45373</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="44">
+        <v>40</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -8266,7 +8277,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10" s="49" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8274,7 +8285,7 @@
       </c>
       <c r="D10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8297,7 +8308,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8576,6 +8587,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8585,15 +8605,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8617,6 +8628,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8628,12 +8647,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belkh\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2655AE0-ECA5-4A06-AB60-A8998AE096CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7664B2A6-36DD-40E1-9615-1F3E4523852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">Création des maquette: Création de la page de login + palette de couleur </t>
+  </si>
+  <si>
+    <t>19,04,2024</t>
+  </si>
+  <si>
+    <t>Absence</t>
   </si>
 </sst>
 </file>
@@ -437,6 +443,80 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -599,80 +679,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1760,18 +1766,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1965,9 +1971,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 0 minutes</v>
+        <v>0 jours 5 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2035,7 +2041,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2043,7 +2049,7 @@
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2200,10 +2206,19 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="35">
+        <v>3</v>
+      </c>
       <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -8091,28 +8106,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8587,15 +8602,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8605,6 +8611,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8628,14 +8643,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8647,4 +8654,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belkh\Documents\GitHub\P-WebSecutity\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7664B2A6-36DD-40E1-9615-1F3E4523852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AAFB3-09FF-479B-BD2D-5950368B71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -144,10 +144,22 @@
     <t xml:space="preserve">Création des maquette: Création de la page de login + palette de couleur </t>
   </si>
   <si>
-    <t>19,04,2024</t>
+    <t>Absence</t>
   </si>
   <si>
-    <t>Absence</t>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>Aide mathis + mateen pour exercice Audit</t>
+  </si>
+  <si>
+    <t>Mise en place du hashage des mot de passe des utilisateur lors de la création</t>
+  </si>
+  <si>
+    <t>Mise en place de l'authentification avec mdp hashé + mise en place de message d'erreur en cas d'une erreur dans l'authentification</t>
+  </si>
+  <si>
+    <t>tentaive automatisation db</t>
   </si>
 </sst>
 </file>
@@ -443,80 +455,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -679,6 +617,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1042,7 +1054,7 @@
                   <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>7.6388888888888895E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1060,7 +1072,7 @@
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,18 +1778,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1972,8 +1984,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2038,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 0 minutes</v>
+        <v>0 jours 6 heurs 30 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2045,11 +2057,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2206,8 +2218,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>34</v>
+      <c r="B12" s="39">
+        <v>45401</v>
       </c>
       <c r="C12" s="35">
         <v>3</v>
@@ -2217,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
@@ -2232,11 +2244,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="40">
+        <v>45408</v>
+      </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="44">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2251,8 +2271,15 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="43">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -2268,9 +2295,15 @@
       <c r="A15" s="18"/>
       <c r="B15" s="40"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="44">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
         <v>25</v>
@@ -2282,11 +2315,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="43">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>40</v>
@@ -2296,9 +2336,15 @@
       <c r="A17" s="18"/>
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="44">
+        <v>15</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
@@ -8106,28 +8152,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8206,7 +8252,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8214,7 +8260,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>2.7777777777777776E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8306,7 +8352,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8314,7 +8360,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8323,7 +8369,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8602,6 +8648,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8611,15 +8666,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8643,6 +8689,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8654,12 +8708,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AAFB3-09FF-479B-BD2D-5950368B71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7AE09-0BAC-4743-8F55-30D646478800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>tentaive automatisation db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupération de la clef privée depuis un fichier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentative de création d'un token avec la clef privée </t>
+  </si>
+  <si>
+    <t>mise en place du token avec la clef privée</t>
+  </si>
+  <si>
+    <t>Création de la colonne admin pour les utilisateur + recherche sur le type tinyInt(1)</t>
+  </si>
+  <si>
+    <t>Ajout du sel lors de la création de l'utilisateur</t>
+  </si>
+  <si>
+    <t>récupération du sel lors de l'authentification de l'utilisateur afin de comparé le mot de passe</t>
+  </si>
+  <si>
+    <t>mise en place des permission admin dans le payload du token + mise en place de la longueur du sel aléatoire.</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1075,7 @@
                   <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6388888888888895E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1984,8 +2005,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2059,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 30 minutes</v>
+        <v>0 jours 8 heurs 40 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2057,11 +2078,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2351,10 +2372,19 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="39">
+        <v>45415</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="43"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="43">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="O18">
         <v>50</v>
@@ -2364,9 +2394,15 @@
       <c r="A19" s="18"/>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="44">
+        <v>15</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="O19">
         <v>55</v>
@@ -2375,56 +2411,102 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="43">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="40"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="44">
+        <v>15</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="43"/>
-      <c r="F22" s="48"/>
+      <c r="D22" s="43">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="40"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="44">
+        <v>15</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="43"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="43">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="44">
+        <v>15</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="43"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="43">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8252,7 +8334,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8260,7 +8342,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>7.6388888888888895E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8369,7 +8451,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.14583333333333334</v>
+        <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8648,15 +8730,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8666,6 +8739,15 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8689,14 +8771,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8708,4 +8782,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/journalTravail.xlsx
+++ b/doc/journalTravail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\P-WebSecutity\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7AE09-0BAC-4743-8F55-30D646478800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7D4C1A-4486-44CF-BB0E-020D7A75FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -129,21 +129,6 @@
     <t>P_APP_183 : Secured WebShop</t>
   </si>
   <si>
-    <t>Discussion du projet avec le prof</t>
-  </si>
-  <si>
-    <t>Création repo git + installation VSCode + création dossier dans le repo</t>
-  </si>
-  <si>
-    <t>mise en place du docker</t>
-  </si>
-  <si>
-    <t>Lancement du docker compose + verrification du bon fonctionnement du docker problème: serveur non fonctionnel quand les fichiers sont renommer 30 min d'essaie, problème réglé. Solution: modifier les chaines de caractère comprenons "server.js" dans le fichier "package.json" ainsi que le dockerfile par "app.mjs"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création des maquette: Création de la page de login + palette de couleur </t>
-  </si>
-  <si>
     <t>Absence</t>
   </si>
   <si>
@@ -153,34 +138,58 @@
     <t>Aide mathis + mateen pour exercice Audit</t>
   </si>
   <si>
-    <t>Mise en place du hashage des mot de passe des utilisateur lors de la création</t>
+    <t>Mise en place du certificat + server HTTPS : réuissi</t>
   </si>
   <si>
-    <t>Mise en place de l'authentification avec mdp hashé + mise en place de message d'erreur en cas d'une erreur dans l'authentification</t>
+    <t>mise en place des permission admin dans le payload du token + mise en place de la longueur du sel aléatoire. : réuissi</t>
   </si>
   <si>
-    <t>tentaive automatisation db</t>
+    <t>récupération du sel lors de l'authentification de l'utilisateur afin de comparé le mot de passe : réuissi</t>
   </si>
   <si>
-    <t xml:space="preserve">Récupération de la clef privée depuis un fichier </t>
+    <t>Création de la colonne admin pour les utilisateur + recherche sur le type tinyInt(1) : réuissi</t>
   </si>
   <si>
-    <t xml:space="preserve">Tentative de création d'un token avec la clef privée </t>
+    <t>Ajout du sel lors de la création de l'utilisateur : réuissi</t>
   </si>
   <si>
-    <t>mise en place du token avec la clef privée</t>
+    <t>mise en place du token avec la clef privée : réuissi</t>
   </si>
   <si>
-    <t>Création de la colonne admin pour les utilisateur + recherche sur le type tinyInt(1)</t>
+    <t>Tentative de création d'un token avec la clef privée  : réuissi</t>
   </si>
   <si>
-    <t>Ajout du sel lors de la création de l'utilisateur</t>
+    <t>Récupération de la clef privée depuis un fichier  : réuissi</t>
   </si>
   <si>
-    <t>récupération du sel lors de l'authentification de l'utilisateur afin de comparé le mot de passe</t>
+    <t>tentaive automatisation db : réuissi</t>
   </si>
   <si>
-    <t>mise en place des permission admin dans le payload du token + mise en place de la longueur du sel aléatoire.</t>
+    <t>Mise en place de l'authentification avec mdp hashé + mise en place de message d'erreur en cas d'une erreur dans l'authentification : réuissi</t>
+  </si>
+  <si>
+    <t>Mise en place du hashage des mot de passe des utilisateur lors de la création : réuissi</t>
+  </si>
+  <si>
+    <t>Création des maquette: Création de la page de login + palette de couleur  : réuissi</t>
+  </si>
+  <si>
+    <t>Lancement du docker compose + verrification du bon fonctionnement du docker problème: serveur non fonctionnel quand les fichiers sont renommer 30 min d'essaie, problème réglé. Solution: modifier les chaines de caractère comprenons "server.js" dans le fichier "package.json" ainsi que le dockerfile par "app.mjs"  : réuissi</t>
+  </si>
+  <si>
+    <t>mise en place du docker : réuissi</t>
+  </si>
+  <si>
+    <t>Création repo git + installation VSCode + création dossier dans le repo : réuissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion du projet avec le prof </t>
+  </si>
+  <si>
+    <t>Aide Evin + toilet</t>
+  </si>
+  <si>
+    <t>Tentatie création app vue dans docker : echec</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1084,7 @@
                   <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.26041666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1093,7 +1102,7 @@
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,8 +2014,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 8 heurs 40 minutes</v>
+        <v>0 jours 11 heurs 5 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2074,15 +2083,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>520</v>
+        <v>665</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2132,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -2148,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G8" s="17"/>
       <c r="M8" t="s">
@@ -2174,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
@@ -2199,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
@@ -2225,7 +2234,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
@@ -2250,7 +2259,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
@@ -2276,7 +2285,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
@@ -2299,7 +2308,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
@@ -2323,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
@@ -2346,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" s="17"/>
       <c r="O16">
@@ -2364,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="20"/>
       <c r="O17">
@@ -2383,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="17"/>
       <c r="O18">
@@ -2401,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="20"/>
       <c r="O19">
@@ -2418,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="17"/>
     </row>
@@ -2433,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G21" s="20"/>
     </row>
@@ -2447,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -2462,11 +2471,11 @@
         <v>4</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="43">
@@ -2476,11 +2485,11 @@
         <v>4</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
@@ -2491,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G25" s="20"/>
     </row>
@@ -2505,33 +2514,56 @@
         <v>4</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="40">
+        <v>45429</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="44">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="43">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>48</v>
+      </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="40"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="47"/>
+      <c r="D29" s="44">
+        <v>35</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8330,11 +8362,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8342,7 +8374,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.16666666666666666</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8434,7 +8466,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8442,7 +8474,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>1.3888888888888888E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8451,7 +8483,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.2361111111111111</v>
+        <v>0.33680555555555552</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8730,6 +8762,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8739,15 +8780,6 @@
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8771,6 +8803,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8782,12 +8822,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>